--- a/addons/other/other.xlsx
+++ b/addons/other/other.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PortableApps\Simple-Web-Server-Windows-1.2.15-x64\workfolder\addons\other\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PortableApps\GitHubDesktopPortable-Kaddons\Data\kaddons.github.io\addons\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1901CEDC-CF70-45EB-A2CE-DB8A715FA38A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E784E1-C4AA-4364-8BA1-04AA4D1ADCCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{42650763-0125-4CBD-B687-4938702E81BA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
   <si>
     <t>Name</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>New</t>
+  </si>
+  <si>
+    <t>wp1920746-wallpaper.jpg</t>
   </si>
 </sst>
 </file>
@@ -960,10 +963,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D9A25EF-1B7A-4619-AB7A-FD7FFA861628}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C15"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -992,7 +995,7 @@
         <v>12</v>
       </c>
       <c r="B2" t="str">
-        <f>"files/" &amp; A2</f>
+        <f t="shared" ref="B2:B16" si="0">"files/" &amp; A2</f>
         <v>files/scrcpy64-3.3.1.zip</v>
       </c>
       <c r="C2" s="1">
@@ -1007,7 +1010,7 @@
         <v>17</v>
       </c>
       <c r="B3" t="str">
-        <f>"files/" &amp; A3</f>
+        <f t="shared" si="0"/>
         <v>files/projectivy-20250731-SonyTV.plbackup</v>
       </c>
       <c r="C3" s="1">
@@ -1022,7 +1025,7 @@
         <v>18</v>
       </c>
       <c r="B4" t="str">
-        <f>"files/" &amp; A4</f>
+        <f t="shared" si="0"/>
         <v>files/sparkletv-20250731.bak</v>
       </c>
       <c r="C4" s="1">
@@ -1037,7 +1040,7 @@
         <v>19</v>
       </c>
       <c r="B5" t="str">
-        <f>"files/" &amp; A5</f>
+        <f t="shared" si="0"/>
         <v>files/tvQA-20250731-SonyTV.zip</v>
       </c>
       <c r="C5" s="1">
@@ -1052,7 +1055,7 @@
         <v>16</v>
       </c>
       <c r="B6" t="str">
-        <f>"files/" &amp; A6</f>
+        <f t="shared" si="0"/>
         <v>files/projectivy-20250718-FireTV.plbackup</v>
       </c>
       <c r="C6" s="1">
@@ -1067,7 +1070,7 @@
         <v>14</v>
       </c>
       <c r="B7" t="str">
-        <f>"files/" &amp; A7</f>
+        <f t="shared" si="0"/>
         <v>files/adguard.jpg</v>
       </c>
       <c r="C7" s="1">
@@ -1082,7 +1085,7 @@
         <v>15</v>
       </c>
       <c r="B8" t="str">
-        <f>"files/" &amp; A8</f>
+        <f t="shared" si="0"/>
         <v>files/flixvision.png</v>
       </c>
       <c r="C8" s="1">
@@ -1097,7 +1100,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="str">
-        <f>"files/" &amp; A9</f>
+        <f t="shared" si="0"/>
         <v>files/tvupdate.tmb</v>
       </c>
       <c r="C9" s="1">
@@ -1112,7 +1115,7 @@
         <v>5</v>
       </c>
       <c r="B10" t="str">
-        <f>"files/" &amp; A10</f>
+        <f t="shared" si="0"/>
         <v>files/adbcmd.txt</v>
       </c>
       <c r="C10" s="1">
@@ -1127,7 +1130,7 @@
         <v>6</v>
       </c>
       <c r="B11" t="str">
-        <f>"files/" &amp; A11</f>
+        <f t="shared" si="0"/>
         <v>files/adbtools.zip</v>
       </c>
       <c r="C11" s="1">
@@ -1142,7 +1145,7 @@
         <v>7</v>
       </c>
       <c r="B12" t="str">
-        <f>"files/" &amp; A12</f>
+        <f t="shared" si="0"/>
         <v>files/firelayout.jpg</v>
       </c>
       <c r="C12" s="1">
@@ -1157,7 +1160,7 @@
         <v>8</v>
       </c>
       <c r="B13" t="str">
-        <f>"files/" &amp; A13</f>
+        <f t="shared" si="0"/>
         <v>files/screen.txt</v>
       </c>
       <c r="C13" s="1">
@@ -1172,7 +1175,7 @@
         <v>9</v>
       </c>
       <c r="B14" t="str">
-        <f>"files/" &amp; A14</f>
+        <f t="shared" si="0"/>
         <v>files/solidzip.zip</v>
       </c>
       <c r="C14" s="1">
@@ -1187,13 +1190,28 @@
         <v>10</v>
       </c>
       <c r="B15" t="str">
-        <f>"files/" &amp; A15</f>
+        <f t="shared" si="0"/>
         <v>files/solidzip4k.zip</v>
       </c>
       <c r="C15" s="1">
         <v>43718</v>
       </c>
       <c r="D15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>files/wp1920746-wallpaper.jpg</v>
+      </c>
+      <c r="C16" s="1">
+        <v>43718</v>
+      </c>
+      <c r="D16" t="s">
         <v>4</v>
       </c>
     </row>

--- a/addons/other/other.xlsx
+++ b/addons/other/other.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PortableApps\GitHubDesktopPortable-Kaddons\Data\kaddons.github.io\addons\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E784E1-C4AA-4364-8BA1-04AA4D1ADCCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D9B2AB-2B80-483C-99E3-1BAFB5EC4168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{42650763-0125-4CBD-B687-4938702E81BA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
   <si>
     <t>Name</t>
   </si>
@@ -59,9 +59,6 @@
     <t>adbtools.zip</t>
   </si>
   <si>
-    <t>firelayout.jpg</t>
-  </si>
-  <si>
     <t>screen.txt</t>
   </si>
   <si>
@@ -102,6 +99,12 @@
   </si>
   <si>
     <t>wp1920746-wallpaper.jpg</t>
+  </si>
+  <si>
+    <t>wallpapers.zip</t>
+  </si>
+  <si>
+    <t>https://is.gd/tvwallpaper</t>
   </si>
 </sst>
 </file>
@@ -585,9 +588,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -992,92 +996,91 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="str">
-        <f t="shared" ref="B2:B16" si="0">"files/" &amp; A2</f>
-        <v>files/scrcpy64-3.3.1.zip</v>
+        <v>21</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="C2" s="1">
-        <v>45903</v>
+        <v>45927</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B3" t="str">
+        <f t="shared" ref="B3:B16" si="0">"files/" &amp; A3</f>
+        <v>files/adbcmd.txt</v>
+      </c>
+      <c r="C3" s="1">
+        <v>45915</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>files/scrcpy64-3.3.1.zip</v>
+      </c>
+      <c r="C4" s="1">
+        <v>45903</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="str">
         <f t="shared" si="0"/>
         <v>files/projectivy-20250731-SonyTV.plbackup</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C5" s="1">
         <v>45869</v>
       </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="str">
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="str">
         <f t="shared" si="0"/>
         <v>files/sparkletv-20250731.bak</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C6" s="1">
         <v>45869</v>
       </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="D6" t="s">
         <v>19</v>
       </c>
-      <c r="B5" t="str">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="str">
         <f t="shared" si="0"/>
         <v>files/tvQA-20250731-SonyTV.zip</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C7" s="1">
         <v>45869</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" t="str">
-        <f t="shared" si="0"/>
-        <v>files/projectivy-20250718-FireTV.plbackup</v>
-      </c>
-      <c r="C6" s="1">
-        <v>45856</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="str">
-        <f t="shared" si="0"/>
-        <v>files/adguard.jpg</v>
-      </c>
-      <c r="C7" s="1">
-        <v>45849</v>
-      </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1086,67 +1089,67 @@
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
-        <v>files/flixvision.png</v>
+        <v>files/projectivy-20250718-FireTV.plbackup</v>
       </c>
       <c r="C8" s="1">
-        <v>45849</v>
+        <v>45856</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
-        <v>files/tvupdate.tmb</v>
+        <v>files/adguard.jpg</v>
       </c>
       <c r="C9" s="1">
-        <v>45839</v>
+        <v>45849</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
-        <v>files/adbcmd.txt</v>
+        <v>files/flixvision.png</v>
       </c>
       <c r="C10" s="1">
-        <v>43718</v>
+        <v>45849</v>
       </c>
       <c r="D10" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
-        <v>files/adbtools.zip</v>
+        <v>files/tvupdate.tmb</v>
       </c>
       <c r="C11" s="1">
-        <v>43718</v>
+        <v>45839</v>
       </c>
       <c r="D11" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
-        <v>files/firelayout.jpg</v>
+        <v>files/adbtools.zip</v>
       </c>
       <c r="C12" s="1">
         <v>43718</v>
@@ -1157,7 +1160,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
@@ -1172,7 +1175,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="0"/>
@@ -1187,7 +1190,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" si="0"/>
@@ -1202,7 +1205,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" t="str">
         <f t="shared" si="0"/>
@@ -1216,8 +1219,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D15">
-    <sortCondition descending="1" ref="C2:C15"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D16">
+    <sortCondition descending="1" ref="C1:C16"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/addons/other/other.xlsx
+++ b/addons/other/other.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PortableApps\GitHubDesktopPortable-Kaddons\Data\kaddons.github.io\addons\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D9B2AB-2B80-483C-99E3-1BAFB5EC4168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B043E5-D6D3-4FB9-9837-44F43FAB986B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{42650763-0125-4CBD-B687-4938702E81BA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="27">
   <si>
     <t>Name</t>
   </si>
@@ -83,9 +83,6 @@
     <t>flixvision.png</t>
   </si>
   <si>
-    <t>projectivy-20250718-FireTV.plbackup</t>
-  </si>
-  <si>
     <t>projectivy-20250731-SonyTV.plbackup</t>
   </si>
   <si>
@@ -105,6 +102,21 @@
   </si>
   <si>
     <t>https://is.gd/tvwallpaper</t>
+  </si>
+  <si>
+    <t>projectivy-20250926-onn4KPro.plbackup</t>
+  </si>
+  <si>
+    <t>tvQA_20250926-onn4KPro.zip</t>
+  </si>
+  <si>
+    <t>tvQA_20250926-Universal.zip</t>
+  </si>
+  <si>
+    <t>tvupdate504.tmb</t>
+  </si>
+  <si>
+    <t>tvupdate510.tmb</t>
   </si>
 </sst>
 </file>
@@ -967,7 +979,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D9A25EF-1B7A-4619-AB7A-FD7FFA861628}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -996,220 +1008,220 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="C2" s="1">
         <v>45927</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B16" si="0">"files/" &amp; A3</f>
-        <v>files/adbcmd.txt</v>
+        <f>"files/" &amp; A3</f>
+        <v>files/projectivy-20250926-onn4KPro.plbackup</v>
       </c>
       <c r="C3" s="1">
-        <v>45915</v>
+        <v>45926</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B4" t="str">
-        <f t="shared" si="0"/>
-        <v>files/scrcpy64-3.3.1.zip</v>
+        <f>"files/" &amp; A4</f>
+        <v>files/tvQA_20250926-Universal.zip</v>
       </c>
       <c r="C4" s="1">
-        <v>45903</v>
+        <v>45926</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B5" t="str">
-        <f t="shared" si="0"/>
-        <v>files/projectivy-20250731-SonyTV.plbackup</v>
+        <f>"files/" &amp; A5</f>
+        <v>files/tvQA_20250926-onn4KPro.zip</v>
       </c>
       <c r="C5" s="1">
-        <v>45869</v>
+        <v>45926</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B6" t="str">
-        <f t="shared" si="0"/>
-        <v>files/sparkletv-20250731.bak</v>
+        <f>"files/" &amp; A6</f>
+        <v>files/tvupdate504.tmb</v>
       </c>
       <c r="C6" s="1">
-        <v>45869</v>
+        <v>45926</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B7" t="str">
-        <f t="shared" si="0"/>
-        <v>files/tvQA-20250731-SonyTV.zip</v>
+        <f>"files/" &amp; A7</f>
+        <v>files/tvupdate510.tmb</v>
       </c>
       <c r="C7" s="1">
-        <v>45869</v>
+        <v>45926</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B8" t="str">
-        <f t="shared" si="0"/>
-        <v>files/projectivy-20250718-FireTV.plbackup</v>
+        <f>"files/" &amp; A8</f>
+        <v>files/adbcmd.txt</v>
       </c>
       <c r="C8" s="1">
-        <v>45856</v>
+        <v>45915</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B9" t="str">
-        <f t="shared" si="0"/>
-        <v>files/adguard.jpg</v>
+        <f>"files/" &amp; A9</f>
+        <v>files/scrcpy64-3.3.1.zip</v>
       </c>
       <c r="C9" s="1">
-        <v>45849</v>
+        <v>45903</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" t="str">
-        <f t="shared" si="0"/>
-        <v>files/flixvision.png</v>
+        <f>"files/" &amp; A10</f>
+        <v>files/projectivy-20250731-SonyTV.plbackup</v>
       </c>
       <c r="C10" s="1">
-        <v>45849</v>
+        <v>45869</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B11" t="str">
-        <f t="shared" si="0"/>
-        <v>files/tvupdate.tmb</v>
+        <f>"files/" &amp; A11</f>
+        <v>files/sparkletv-20250731.bak</v>
       </c>
       <c r="C11" s="1">
-        <v>45839</v>
+        <v>45869</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B12" t="str">
-        <f t="shared" si="0"/>
-        <v>files/adbtools.zip</v>
+        <f>"files/" &amp; A12</f>
+        <v>files/tvQA-20250731-SonyTV.zip</v>
       </c>
       <c r="C12" s="1">
-        <v>43718</v>
+        <v>45869</v>
       </c>
       <c r="D12" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B13" t="str">
-        <f t="shared" si="0"/>
-        <v>files/screen.txt</v>
+        <f>"files/" &amp; A13</f>
+        <v>files/adguard.jpg</v>
       </c>
       <c r="C13" s="1">
-        <v>43718</v>
+        <v>45849</v>
       </c>
       <c r="D13" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B14" t="str">
-        <f t="shared" si="0"/>
-        <v>files/solidzip.zip</v>
+        <f>"files/" &amp; A14</f>
+        <v>files/flixvision.png</v>
       </c>
       <c r="C14" s="1">
-        <v>43718</v>
+        <v>45849</v>
       </c>
       <c r="D14" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B15" t="str">
-        <f t="shared" si="0"/>
-        <v>files/solidzip4k.zip</v>
+        <f>"files/" &amp; A15</f>
+        <v>files/tvupdate.tmb</v>
       </c>
       <c r="C15" s="1">
-        <v>43718</v>
+        <v>45839</v>
       </c>
       <c r="D15" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B16" t="str">
-        <f t="shared" si="0"/>
-        <v>files/wp1920746-wallpaper.jpg</v>
+        <f>"files/" &amp; A16</f>
+        <v>files/adbtools.zip</v>
       </c>
       <c r="C16" s="1">
         <v>43718</v>
@@ -1218,9 +1230,69 @@
         <v>4</v>
       </c>
     </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" t="str">
+        <f>"files/" &amp; A17</f>
+        <v>files/screen.txt</v>
+      </c>
+      <c r="C17" s="1">
+        <v>43718</v>
+      </c>
+      <c r="D17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="str">
+        <f>"files/" &amp; A18</f>
+        <v>files/solidzip.zip</v>
+      </c>
+      <c r="C18" s="1">
+        <v>43718</v>
+      </c>
+      <c r="D18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" t="str">
+        <f>"files/" &amp; A19</f>
+        <v>files/solidzip4k.zip</v>
+      </c>
+      <c r="C19" s="1">
+        <v>43718</v>
+      </c>
+      <c r="D19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="str">
+        <f>"files/" &amp; A20</f>
+        <v>files/wp1920746-wallpaper.jpg</v>
+      </c>
+      <c r="C20" s="1">
+        <v>43718</v>
+      </c>
+      <c r="D20" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D16">
-    <sortCondition descending="1" ref="C1:C16"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D22">
+    <sortCondition descending="1" ref="C1:C22"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/addons/other/other.xlsx
+++ b/addons/other/other.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PortableApps\GitHubDesktopPortable-Kaddons\Data\kaddons.github.io\addons\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B043E5-D6D3-4FB9-9837-44F43FAB986B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F8AA46-A72A-4450-8D5D-BEB554725A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{42650763-0125-4CBD-B687-4938702E81BA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
   <si>
     <t>Name</t>
   </si>
@@ -107,16 +107,22 @@
     <t>projectivy-20250926-onn4KPro.plbackup</t>
   </si>
   <si>
-    <t>tvQA_20250926-onn4KPro.zip</t>
-  </si>
-  <si>
-    <t>tvQA_20250926-Universal.zip</t>
-  </si>
-  <si>
     <t>tvupdate504.tmb</t>
   </si>
   <si>
     <t>tvupdate510.tmb</t>
+  </si>
+  <si>
+    <t>tvQA_20251112-Universal.zip</t>
+  </si>
+  <si>
+    <t>tvQA_20251112-onn4KPro.zip</t>
+  </si>
+  <si>
+    <t>tvQA_20251109-FireTV.zip</t>
+  </si>
+  <si>
+    <t>projectivy-20251109-FireTV.plbackup</t>
   </si>
 </sst>
 </file>
@@ -979,10 +985,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D9A25EF-1B7A-4619-AB7A-FD7FFA861628}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1008,43 +1014,44 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
+      </c>
+      <c r="B2" t="str">
+        <f>"files/" &amp; A2</f>
+        <v>files/tvQA_20251112-Universal.zip</v>
       </c>
       <c r="C2" s="1">
-        <v>45927</v>
+        <v>45973</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B3" t="str">
         <f>"files/" &amp; A3</f>
-        <v>files/projectivy-20250926-onn4KPro.plbackup</v>
+        <v>files/tvQA_20251112-onn4KPro.zip</v>
       </c>
       <c r="C3" s="1">
-        <v>45926</v>
+        <v>45973</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" t="str">
+        <v>28</v>
+      </c>
+      <c r="B4" s="2" t="str">
         <f>"files/" &amp; A4</f>
-        <v>files/tvQA_20250926-Universal.zip</v>
+        <v>files/projectivy-20251109-FireTV.plbackup</v>
       </c>
       <c r="C4" s="1">
-        <v>45926</v>
+        <v>45970</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
@@ -1052,14 +1059,14 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B5" t="str">
         <f>"files/" &amp; A5</f>
-        <v>files/tvQA_20250926-onn4KPro.zip</v>
+        <v>files/tvQA_20251109-FireTV.zip</v>
       </c>
       <c r="C5" s="1">
-        <v>45926</v>
+        <v>45970</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
@@ -1067,44 +1074,43 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" t="str">
-        <f>"files/" &amp; A6</f>
-        <v>files/tvupdate504.tmb</v>
+        <v>20</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="C6" s="1">
-        <v>45926</v>
+        <v>45927</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B7" t="str">
         <f>"files/" &amp; A7</f>
-        <v>files/tvupdate510.tmb</v>
+        <v>files/projectivy-20250926-onn4KPro.plbackup</v>
       </c>
       <c r="C7" s="1">
         <v>45926</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B8" t="str">
         <f>"files/" &amp; A8</f>
-        <v>files/adbcmd.txt</v>
+        <v>files/tvupdate504.tmb</v>
       </c>
       <c r="C8" s="1">
-        <v>45915</v>
+        <v>45926</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -1112,14 +1118,14 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B9" t="str">
         <f>"files/" &amp; A9</f>
-        <v>files/scrcpy64-3.3.1.zip</v>
+        <v>files/tvupdate510.tmb</v>
       </c>
       <c r="C9" s="1">
-        <v>45903</v>
+        <v>45926</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -1127,41 +1133,41 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B10" t="str">
         <f>"files/" &amp; A10</f>
-        <v>files/projectivy-20250731-SonyTV.plbackup</v>
+        <v>files/adbcmd.txt</v>
       </c>
       <c r="C10" s="1">
-        <v>45869</v>
+        <v>45915</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B11" t="str">
         <f>"files/" &amp; A11</f>
-        <v>files/sparkletv-20250731.bak</v>
+        <v>files/scrcpy64-3.3.1.zip</v>
       </c>
       <c r="C11" s="1">
-        <v>45869</v>
+        <v>45903</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B12" t="str">
         <f>"files/" &amp; A12</f>
-        <v>files/tvQA-20250731-SonyTV.zip</v>
+        <v>files/projectivy-20250731-SonyTV.plbackup</v>
       </c>
       <c r="C12" s="1">
         <v>45869</v>
@@ -1172,14 +1178,14 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B13" t="str">
         <f>"files/" &amp; A13</f>
-        <v>files/adguard.jpg</v>
+        <v>files/sparkletv-20250731.bak</v>
       </c>
       <c r="C13" s="1">
-        <v>45849</v>
+        <v>45869</v>
       </c>
       <c r="D13" t="s">
         <v>18</v>
@@ -1187,14 +1193,14 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B14" t="str">
         <f>"files/" &amp; A14</f>
-        <v>files/flixvision.png</v>
+        <v>files/tvQA-20250731-SonyTV.zip</v>
       </c>
       <c r="C14" s="1">
-        <v>45849</v>
+        <v>45869</v>
       </c>
       <c r="D14" t="s">
         <v>18</v>
@@ -1202,56 +1208,56 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B15" t="str">
         <f>"files/" &amp; A15</f>
-        <v>files/tvupdate.tmb</v>
+        <v>files/adguard.jpg</v>
       </c>
       <c r="C15" s="1">
-        <v>45839</v>
+        <v>45849</v>
       </c>
       <c r="D15" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B16" t="str">
         <f>"files/" &amp; A16</f>
-        <v>files/adbtools.zip</v>
+        <v>files/flixvision.png</v>
       </c>
       <c r="C16" s="1">
-        <v>43718</v>
+        <v>45849</v>
       </c>
       <c r="D16" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B17" t="str">
         <f>"files/" &amp; A17</f>
-        <v>files/screen.txt</v>
+        <v>files/tvupdate.tmb</v>
       </c>
       <c r="C17" s="1">
-        <v>43718</v>
+        <v>45839</v>
       </c>
       <c r="D17" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B18" t="str">
         <f>"files/" &amp; A18</f>
-        <v>files/solidzip.zip</v>
+        <v>files/adbtools.zip</v>
       </c>
       <c r="C18" s="1">
         <v>43718</v>
@@ -1262,11 +1268,11 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B19" t="str">
         <f>"files/" &amp; A19</f>
-        <v>files/solidzip4k.zip</v>
+        <v>files/screen.txt</v>
       </c>
       <c r="C19" s="1">
         <v>43718</v>
@@ -1277,16 +1283,46 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B20" t="str">
         <f>"files/" &amp; A20</f>
-        <v>files/wp1920746-wallpaper.jpg</v>
+        <v>files/solidzip.zip</v>
       </c>
       <c r="C20" s="1">
         <v>43718</v>
       </c>
       <c r="D20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" t="str">
+        <f>"files/" &amp; A21</f>
+        <v>files/solidzip4k.zip</v>
+      </c>
+      <c r="C21" s="1">
+        <v>43718</v>
+      </c>
+      <c r="D21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" t="str">
+        <f>"files/" &amp; A22</f>
+        <v>files/wp1920746-wallpaper.jpg</v>
+      </c>
+      <c r="C22" s="1">
+        <v>43718</v>
+      </c>
+      <c r="D22" t="s">
         <v>4</v>
       </c>
     </row>

--- a/addons/other/other.xlsx
+++ b/addons/other/other.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PortableApps\GitHubDesktopPortable-Kaddons\Data\kaddons.github.io\addons\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F8AA46-A72A-4450-8D5D-BEB554725A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD5149C-8AE3-4193-8763-7EF13B0A0B54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{42650763-0125-4CBD-B687-4938702E81BA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
   <si>
     <t>Name</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>projectivy-20251109-FireTV.plbackup</t>
+  </si>
+  <si>
+    <t>smart.stable-30.56.zip</t>
   </si>
 </sst>
 </file>
@@ -985,10 +988,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D9A25EF-1B7A-4619-AB7A-FD7FFA861628}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1014,26 +1017,26 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B2" t="str">
         <f>"files/" &amp; A2</f>
-        <v>files/tvQA_20251112-Universal.zip</v>
+        <v>files/smart.stable-30.56.zip</v>
       </c>
       <c r="C2" s="1">
-        <v>45973</v>
+        <v>45988</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" t="str">
         <f>"files/" &amp; A3</f>
-        <v>files/tvQA_20251112-onn4KPro.zip</v>
+        <v>files/tvQA_20251112-Universal.zip</v>
       </c>
       <c r="C3" s="1">
         <v>45973</v>
@@ -1044,26 +1047,26 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="2" t="str">
+        <v>26</v>
+      </c>
+      <c r="B4" t="str">
         <f>"files/" &amp; A4</f>
-        <v>files/projectivy-20251109-FireTV.plbackup</v>
+        <v>files/tvQA_20251112-onn4KPro.zip</v>
       </c>
       <c r="C4" s="1">
-        <v>45970</v>
+        <v>45973</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" t="str">
+        <v>28</v>
+      </c>
+      <c r="B5" s="2" t="str">
         <f>"files/" &amp; A5</f>
-        <v>files/tvQA_20251109-FireTV.zip</v>
+        <v>files/projectivy-20251109-FireTV.plbackup</v>
       </c>
       <c r="C5" s="1">
         <v>45970</v>
@@ -1074,13 +1077,14 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
+      </c>
+      <c r="B6" t="str">
+        <f>"files/" &amp; A6</f>
+        <v>files/tvQA_20251109-FireTV.zip</v>
       </c>
       <c r="C6" s="1">
-        <v>45927</v>
+        <v>45970</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
@@ -1088,14 +1092,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="str">
-        <f>"files/" &amp; A7</f>
-        <v>files/projectivy-20250926-onn4KPro.plbackup</v>
+        <v>20</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="C7" s="1">
-        <v>45926</v>
+        <v>45927</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
@@ -1103,26 +1106,26 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="str">
         <f>"files/" &amp; A8</f>
-        <v>files/tvupdate504.tmb</v>
+        <v>files/projectivy-20250926-onn4KPro.plbackup</v>
       </c>
       <c r="C8" s="1">
         <v>45926</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" t="str">
         <f>"files/" &amp; A9</f>
-        <v>files/tvupdate510.tmb</v>
+        <v>files/tvupdate504.tmb</v>
       </c>
       <c r="C9" s="1">
         <v>45926</v>
@@ -1133,14 +1136,14 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B10" t="str">
         <f>"files/" &amp; A10</f>
-        <v>files/adbcmd.txt</v>
+        <v>files/tvupdate510.tmb</v>
       </c>
       <c r="C10" s="1">
-        <v>45915</v>
+        <v>45926</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -1148,14 +1151,14 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B11" t="str">
         <f>"files/" &amp; A11</f>
-        <v>files/scrcpy64-3.3.1.zip</v>
+        <v>files/adbcmd.txt</v>
       </c>
       <c r="C11" s="1">
-        <v>45903</v>
+        <v>45915</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
@@ -1163,26 +1166,26 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B12" t="str">
         <f>"files/" &amp; A12</f>
-        <v>files/projectivy-20250731-SonyTV.plbackup</v>
+        <v>files/scrcpy64-3.3.1.zip</v>
       </c>
       <c r="C12" s="1">
-        <v>45869</v>
+        <v>45903</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" t="str">
         <f>"files/" &amp; A13</f>
-        <v>files/sparkletv-20250731.bak</v>
+        <v>files/projectivy-20250731-SonyTV.plbackup</v>
       </c>
       <c r="C13" s="1">
         <v>45869</v>
@@ -1193,11 +1196,11 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" t="str">
         <f>"files/" &amp; A14</f>
-        <v>files/tvQA-20250731-SonyTV.zip</v>
+        <v>files/sparkletv-20250731.bak</v>
       </c>
       <c r="C14" s="1">
         <v>45869</v>
@@ -1208,14 +1211,14 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B15" t="str">
         <f>"files/" &amp; A15</f>
-        <v>files/adguard.jpg</v>
+        <v>files/tvQA-20250731-SonyTV.zip</v>
       </c>
       <c r="C15" s="1">
-        <v>45849</v>
+        <v>45869</v>
       </c>
       <c r="D15" t="s">
         <v>18</v>
@@ -1223,11 +1226,11 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" t="str">
         <f>"files/" &amp; A16</f>
-        <v>files/flixvision.png</v>
+        <v>files/adguard.jpg</v>
       </c>
       <c r="C16" s="1">
         <v>45849</v>
@@ -1238,41 +1241,41 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B17" t="str">
         <f>"files/" &amp; A17</f>
-        <v>files/tvupdate.tmb</v>
+        <v>files/flixvision.png</v>
       </c>
       <c r="C17" s="1">
-        <v>45839</v>
+        <v>45849</v>
       </c>
       <c r="D17" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B18" t="str">
         <f>"files/" &amp; A18</f>
-        <v>files/adbtools.zip</v>
+        <v>files/tvupdate.tmb</v>
       </c>
       <c r="C18" s="1">
-        <v>43718</v>
+        <v>45839</v>
       </c>
       <c r="D18" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B19" t="str">
         <f>"files/" &amp; A19</f>
-        <v>files/screen.txt</v>
+        <v>files/adbtools.zip</v>
       </c>
       <c r="C19" s="1">
         <v>43718</v>
@@ -1283,11 +1286,11 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B20" t="str">
         <f>"files/" &amp; A20</f>
-        <v>files/solidzip.zip</v>
+        <v>files/screen.txt</v>
       </c>
       <c r="C20" s="1">
         <v>43718</v>
@@ -1298,11 +1301,11 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B21" t="str">
         <f>"files/" &amp; A21</f>
-        <v>files/solidzip4k.zip</v>
+        <v>files/solidzip.zip</v>
       </c>
       <c r="C21" s="1">
         <v>43718</v>
@@ -1313,11 +1316,11 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B22" t="str">
         <f>"files/" &amp; A22</f>
-        <v>files/wp1920746-wallpaper.jpg</v>
+        <v>files/solidzip4k.zip</v>
       </c>
       <c r="C22" s="1">
         <v>43718</v>
@@ -1326,9 +1329,24 @@
         <v>4</v>
       </c>
     </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" t="str">
+        <f>"files/" &amp; A23</f>
+        <v>files/wp1920746-wallpaper.jpg</v>
+      </c>
+      <c r="C23" s="1">
+        <v>43718</v>
+      </c>
+      <c r="D23" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D22">
-    <sortCondition descending="1" ref="C1:C22"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D23">
+    <sortCondition descending="1" ref="C1:C23"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
